--- a/similarities/split_global/harmonic_similarity_timestamps_197.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_197.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,678 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C', 'G', 'D', 'G', 'C']]</t>
+          <t>['Bb/3', 'Eb:maj', 'Bb/3']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:26.025000', '0:01:37.584000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:44.983424', '0:01:03.071768')]</t>
+          <t>('0:00:38.041000', '0:00:42.375000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=86.025']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=44.983424']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'D:7/C', 'D#:maj/A#']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'E:7', 'F']]</t>
+          <t>['E', 'A:min', 'E', 'A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:55.780000', '0:01:02.360000')]</t>
+          <t>('0:00:00.220000', '0:00:08.880000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:53.673000', '0:01:00.522000')]</t>
+          <t>('0:00:41.820000', '0:00:47.891000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=55.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.22</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=53.673']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=41.82</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Gb:maj6', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:09.940000')]</t>
+          <t>('0:01:04.660000', '0:01:11.060000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:37.750000', '0:00:41.100000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=64.66</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=37.75</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>isophonics_12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>['D/5', 'A/3', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:00:53.940000')]</t>
+          <t>('0:00:46.560000', '0:00:49.080000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:16.380000')]</t>
+          <t>('0:00:21.740249', '0:00:26.767369')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>['G/5', 'C/9', 'G']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb', 'C:maj', 'F:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:05.130361', '0:00:10.478662')]</t>
+          <t>('0:00:00.727609', '0:00:08.204625')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:03.861000', '0:01:06.732000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=5.130361']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.861']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C'], ['G', 'C', 'G/3']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:27.476822', '0:00:35.056893'), ('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:00:20.780000', '0:00:31.600000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:22.380000', '0:02:25.800000'), ('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:01:04.871315', '0:01:12.777709')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=20.78</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=142.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=64.871315</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+          <t>('0:00:15.600000', '0:00:24.080000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:00:42.520000', '0:00:46.360000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A', 'D', 'A', 'E/4']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:00:34.232000', '0:00:40.821000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:01:22.290863', '0:01:37.395443')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=34.232</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
+          <t>('0:00:43.180000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E'], ['F#', 'B', 'E']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:16.701519', '0:00:23.528185'), ('0:00:29.008095', '0:00:34.615714')]</t>
+          <t>('0:00:44.300045', '0:00:57.976598')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:23.480000'), ('0:03:28.740000', '0:03:31.740000')]</t>
+          <t>('0:02:03.220000', '0:02:07.580000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=16.701519', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=29.008095']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=44.300045</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=208.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:01:08.980000', '0:01:27.200000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:29.020000', '0:00:40.820000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=68.98</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=29.02</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
+          <t>('0:00:10.820000', '0:00:17.080000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:06.820000')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min/5', 'C:min', 'G', 'C:min']]</t>
+          <t>['C:min7', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:22.981000', '0:00:29.373000')]</t>
+          <t>('0:00:04', '0:00:06.460000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:46.340000', '0:00:51.380000')]</t>
+          <t>('0:00:30.580000', '0:00:34.890000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=22.981']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=4.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=46.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=30.58</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:32.486000', '0:00:37.053000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:05.780000', '0:00:12.460000')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=32.486']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=5.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.740000', '0:00:21.500000'), ('0:01:08.040000', '0:01:19')]</t>
+          <t>('0:00:54.060000', '0:00:58.260000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:08.340000', '0:00:10.040000'), ('0:00:00.380000', '0:00:07.840000')]</t>
+          <t>('0:00:22.600000', '0:00:29.840000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=54.06</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=22.6</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
